--- a/assets/testfiles/eggrades.xlsx
+++ b/assets/testfiles/eggrades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847FF695-DF0B-4531-B341-4529FD662E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B7C8B-6F20-4457-8F48-523A1D59A035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15B936A2-5E5B-4F96-AC6C-A9A5F7455586}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>studentid</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Second</t>
   </si>
   <si>
-    <t>Malfoy, Draco</t>
-  </si>
-  <si>
     <t>Literacy/Civic Welfare/Military Science 2</t>
   </si>
   <si>
@@ -81,6 +78,27 @@
   </si>
   <si>
     <t>Davis, Anthony</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>MLC 1102</t>
+  </si>
+  <si>
+    <t>James, Lebron</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>finalgrades</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -439,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989EAE51-E51A-438E-A0F3-BFFC71F96E8E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +469,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
@@ -460,7 +478,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,30 +492,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>8024952</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8024951</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -506,30 +536,42 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>4</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>73</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8024953</v>
+        <v>8024952</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -538,25 +580,82 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>4</v>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <v>73</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8024953</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>73</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>